--- a/SourceData/SourceData_ExtendedDataFig3.xlsx
+++ b/SourceData/SourceData_ExtendedDataFig3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12255"/>
+    <workbookView windowWidth="15960" windowHeight="9255"/>
   </bookViews>
   <sheets>
     <sheet name="Extended Fig3a" sheetId="1" r:id="rId1"/>
@@ -95,20 +95,13 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -606,147 +599,147 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -755,26 +748,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1310,7 +1300,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1330,37 +1320,37 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
     </row>
     <row r="2" ht="15.75" spans="1:9">
       <c r="A2" s="4"/>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12" t="s">
+      <c r="E2" s="11"/>
+      <c r="F2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12" t="s">
+      <c r="G2" s="11"/>
+      <c r="H2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="12"/>
+      <c r="I2" s="11"/>
     </row>
     <row r="3" ht="15.75" spans="1:9">
       <c r="A3" s="5"/>
@@ -1390,17 +1380,17 @@
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:9">
-      <c r="A4" s="13">
+      <c r="A4" s="12">
         <v>0</v>
       </c>
       <c r="B4" s="9">
-        <v>13.19</v>
+        <v>13.2</v>
       </c>
       <c r="C4" s="9">
         <v>9.82</v>
       </c>
       <c r="D4" s="9">
-        <v>12.05</v>
+        <v>12</v>
       </c>
       <c r="E4" s="9">
         <v>12.85</v>
@@ -1419,17 +1409,17 @@
       </c>
     </row>
     <row r="5" ht="15.75" spans="1:9">
-      <c r="A5" s="13">
+      <c r="A5" s="12">
         <v>1</v>
       </c>
       <c r="B5" s="9">
-        <v>13.06</v>
+        <v>13.04</v>
       </c>
       <c r="C5" s="9">
         <v>8.18</v>
       </c>
       <c r="D5" s="9">
-        <v>12.92</v>
+        <v>12.84</v>
       </c>
       <c r="E5" s="9">
         <v>9.85</v>
@@ -1448,17 +1438,17 @@
       </c>
     </row>
     <row r="6" ht="15.75" spans="1:9">
-      <c r="A6" s="13">
+      <c r="A6" s="12">
         <v>2</v>
       </c>
       <c r="B6" s="9">
-        <v>13.02</v>
+        <v>13.08</v>
       </c>
       <c r="C6" s="9">
         <v>10.83</v>
       </c>
       <c r="D6" s="9">
-        <v>14.17</v>
+        <v>14.36</v>
       </c>
       <c r="E6" s="9">
         <v>11.28</v>
@@ -1477,17 +1467,17 @@
       </c>
     </row>
     <row r="7" ht="15.75" spans="1:9">
-      <c r="A7" s="13">
+      <c r="A7" s="12">
         <v>3</v>
       </c>
       <c r="B7" s="9">
-        <v>12.29</v>
+        <v>12.32</v>
       </c>
       <c r="C7" s="9">
         <v>9.03</v>
       </c>
       <c r="D7" s="9">
-        <v>13.87</v>
+        <v>13.82</v>
       </c>
       <c r="E7" s="9">
         <v>9.94</v>
@@ -1506,17 +1496,17 @@
       </c>
     </row>
     <row r="8" ht="15.75" spans="1:9">
-      <c r="A8" s="13">
+      <c r="A8" s="12">
         <v>4</v>
       </c>
       <c r="B8" s="9">
-        <v>11.43</v>
+        <v>11.3</v>
       </c>
       <c r="C8" s="9">
         <v>7.63</v>
       </c>
       <c r="D8" s="9">
-        <v>13.54</v>
+        <v>13.52</v>
       </c>
       <c r="E8" s="9">
         <v>9.29</v>
@@ -1535,17 +1525,17 @@
       </c>
     </row>
     <row r="9" ht="15.75" spans="1:9">
-      <c r="A9" s="13">
+      <c r="A9" s="12">
         <v>5</v>
       </c>
       <c r="B9" s="9">
-        <v>11.98</v>
+        <v>11.89</v>
       </c>
       <c r="C9" s="9">
         <v>7.07</v>
       </c>
       <c r="D9" s="9">
-        <v>13.93</v>
+        <v>13.78</v>
       </c>
       <c r="E9" s="9">
         <v>9.05</v>
@@ -1564,17 +1554,17 @@
       </c>
     </row>
     <row r="10" ht="15.75" spans="1:9">
-      <c r="A10" s="13">
+      <c r="A10" s="12">
         <v>6</v>
       </c>
       <c r="B10" s="9">
-        <v>13.66</v>
+        <v>13.72</v>
       </c>
       <c r="C10" s="9">
         <v>9.16</v>
       </c>
       <c r="D10" s="9">
-        <v>15.59</v>
+        <v>15.71</v>
       </c>
       <c r="E10" s="9">
         <v>11.4</v>
@@ -1593,17 +1583,17 @@
       </c>
     </row>
     <row r="11" ht="15.75" spans="1:9">
-      <c r="A11" s="13">
+      <c r="A11" s="12">
         <v>7</v>
       </c>
       <c r="B11" s="9">
-        <v>14.53</v>
+        <v>14.69</v>
       </c>
       <c r="C11" s="9">
         <v>9.59</v>
       </c>
       <c r="D11" s="9">
-        <v>15.91</v>
+        <v>16.16</v>
       </c>
       <c r="E11" s="9">
         <v>12.12</v>
@@ -1622,17 +1612,17 @@
       </c>
     </row>
     <row r="12" ht="15.75" spans="1:9">
-      <c r="A12" s="13">
+      <c r="A12" s="12">
         <v>8</v>
       </c>
       <c r="B12" s="9">
-        <v>13.66</v>
+        <v>13.65</v>
       </c>
       <c r="C12" s="9">
         <v>9.43</v>
       </c>
       <c r="D12" s="9">
-        <v>13.3</v>
+        <v>13.36</v>
       </c>
       <c r="E12" s="9">
         <v>7.7</v>
@@ -1651,17 +1641,17 @@
       </c>
     </row>
     <row r="13" ht="15.75" spans="1:9">
-      <c r="A13" s="13">
+      <c r="A13" s="12">
         <v>9</v>
       </c>
       <c r="B13" s="9">
-        <v>12.39</v>
+        <v>12.43</v>
       </c>
       <c r="C13" s="9">
         <v>8.39</v>
       </c>
       <c r="D13" s="9">
-        <v>10.02</v>
+        <v>9.83</v>
       </c>
       <c r="E13" s="9">
         <v>3.62</v>
@@ -1680,17 +1670,17 @@
       </c>
     </row>
     <row r="14" ht="15.75" spans="1:9">
-      <c r="A14" s="13">
+      <c r="A14" s="12">
         <v>10</v>
       </c>
       <c r="B14" s="9">
-        <v>10.59</v>
+        <v>10.68</v>
       </c>
       <c r="C14" s="9">
         <v>7.87</v>
       </c>
       <c r="D14" s="9">
-        <v>8.23</v>
+        <v>8.32</v>
       </c>
       <c r="E14" s="9">
         <v>5.02</v>
@@ -1709,17 +1699,17 @@
       </c>
     </row>
     <row r="15" ht="15.75" spans="1:9">
-      <c r="A15" s="13">
+      <c r="A15" s="12">
         <v>11</v>
       </c>
       <c r="B15" s="9">
-        <v>8.33</v>
+        <v>8.13</v>
       </c>
       <c r="C15" s="9">
         <v>5.02</v>
       </c>
       <c r="D15" s="9">
-        <v>6.02</v>
+        <v>6.01</v>
       </c>
       <c r="E15" s="9">
         <v>3.05</v>
@@ -1738,17 +1728,17 @@
       </c>
     </row>
     <row r="16" ht="15.75" spans="1:9">
-      <c r="A16" s="13">
+      <c r="A16" s="12">
         <v>12</v>
       </c>
       <c r="B16" s="9">
-        <v>7.68</v>
+        <v>7.72</v>
       </c>
       <c r="C16" s="9">
         <v>7.22</v>
       </c>
       <c r="D16" s="9">
-        <v>4.14</v>
+        <v>3.7</v>
       </c>
       <c r="E16" s="9">
         <v>1.36</v>
@@ -1767,17 +1757,17 @@
       </c>
     </row>
     <row r="17" ht="15.75" spans="1:9">
-      <c r="A17" s="13">
+      <c r="A17" s="12">
         <v>13</v>
       </c>
       <c r="B17" s="9">
-        <v>7.12</v>
+        <v>7.11</v>
       </c>
       <c r="C17" s="9">
         <v>6.64</v>
       </c>
       <c r="D17" s="9">
-        <v>4.02</v>
+        <v>4.04</v>
       </c>
       <c r="E17" s="9">
         <v>2.91</v>
@@ -1796,17 +1786,17 @@
       </c>
     </row>
     <row r="18" ht="15.75" spans="1:9">
-      <c r="A18" s="13">
+      <c r="A18" s="12">
         <v>14</v>
       </c>
       <c r="B18" s="9">
-        <v>6.69</v>
+        <v>6.61</v>
       </c>
       <c r="C18" s="9">
         <v>5.34</v>
       </c>
       <c r="D18" s="9">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="E18" s="9">
         <v>1.93</v>
@@ -1825,17 +1815,17 @@
       </c>
     </row>
     <row r="19" ht="15.75" spans="1:9">
-      <c r="A19" s="13">
+      <c r="A19" s="12">
         <v>15</v>
       </c>
       <c r="B19" s="9">
-        <v>6.99</v>
+        <v>7</v>
       </c>
       <c r="C19" s="9">
         <v>6.35</v>
       </c>
       <c r="D19" s="9">
-        <v>4.79</v>
+        <v>4.8</v>
       </c>
       <c r="E19" s="9">
         <v>3.9</v>
@@ -1854,17 +1844,17 @@
       </c>
     </row>
     <row r="20" ht="15.75" spans="1:9">
-      <c r="A20" s="13">
+      <c r="A20" s="12">
         <v>16</v>
       </c>
       <c r="B20" s="9">
-        <v>7.58</v>
+        <v>7.52</v>
       </c>
       <c r="C20" s="9">
         <v>5.73</v>
       </c>
       <c r="D20" s="9">
-        <v>5.5</v>
+        <v>5.42</v>
       </c>
       <c r="E20" s="9">
         <v>4.02</v>
@@ -1883,17 +1873,17 @@
       </c>
     </row>
     <row r="21" ht="15.75" spans="1:9">
-      <c r="A21" s="13">
+      <c r="A21" s="12">
         <v>17</v>
       </c>
       <c r="B21" s="9">
-        <v>8.64</v>
+        <v>8.67</v>
       </c>
       <c r="C21" s="9">
         <v>5.63</v>
       </c>
       <c r="D21" s="9">
-        <v>7.11</v>
+        <v>7.06</v>
       </c>
       <c r="E21" s="9">
         <v>5.57</v>
@@ -1912,17 +1902,17 @@
       </c>
     </row>
     <row r="22" ht="15.75" spans="1:9">
-      <c r="A22" s="13">
+      <c r="A22" s="12">
         <v>18</v>
       </c>
       <c r="B22" s="9">
-        <v>9.69</v>
+        <v>9.62</v>
       </c>
       <c r="C22" s="9">
         <v>5.98</v>
       </c>
       <c r="D22" s="9">
-        <v>9.31</v>
+        <v>9.35</v>
       </c>
       <c r="E22" s="9">
         <v>5.89</v>
@@ -1941,17 +1931,17 @@
       </c>
     </row>
     <row r="23" ht="15.75" spans="1:9">
-      <c r="A23" s="13">
+      <c r="A23" s="12">
         <v>19</v>
       </c>
       <c r="B23" s="9">
-        <v>11.26</v>
+        <v>11.29</v>
       </c>
       <c r="C23" s="9">
         <v>8.89</v>
       </c>
       <c r="D23" s="9">
-        <v>10.89</v>
+        <v>11.02</v>
       </c>
       <c r="E23" s="9">
         <v>7.05</v>
@@ -1970,17 +1960,17 @@
       </c>
     </row>
     <row r="24" ht="15.75" spans="1:9">
-      <c r="A24" s="13">
+      <c r="A24" s="12">
         <v>20</v>
       </c>
       <c r="B24" s="9">
-        <v>12.62</v>
+        <v>12.64</v>
       </c>
       <c r="C24" s="9">
         <v>8.66</v>
       </c>
       <c r="D24" s="9">
-        <v>10.95</v>
+        <v>10.98</v>
       </c>
       <c r="E24" s="9">
         <v>7.57</v>
@@ -1999,17 +1989,17 @@
       </c>
     </row>
     <row r="25" ht="15.75" spans="1:9">
-      <c r="A25" s="13">
+      <c r="A25" s="12">
         <v>21</v>
       </c>
       <c r="B25" s="9">
-        <v>13.57</v>
+        <v>13.65</v>
       </c>
       <c r="C25" s="9">
         <v>9.26</v>
       </c>
       <c r="D25" s="9">
-        <v>10.65</v>
+        <v>10.52</v>
       </c>
       <c r="E25" s="9">
         <v>5.55</v>
@@ -2028,17 +2018,17 @@
       </c>
     </row>
     <row r="26" ht="15.75" spans="1:9">
-      <c r="A26" s="13">
+      <c r="A26" s="12">
         <v>22</v>
       </c>
       <c r="B26" s="9">
-        <v>13.63</v>
+        <v>13.66</v>
       </c>
       <c r="C26" s="9">
         <v>9.23</v>
       </c>
       <c r="D26" s="9">
-        <v>11.17</v>
+        <v>11.29</v>
       </c>
       <c r="E26" s="9">
         <v>8.15</v>
@@ -2057,17 +2047,17 @@
       </c>
     </row>
     <row r="27" ht="15.75" spans="1:9">
-      <c r="A27" s="13">
+      <c r="A27" s="12">
         <v>23</v>
       </c>
       <c r="B27" s="9">
-        <v>13.29</v>
+        <v>13.25</v>
       </c>
       <c r="C27" s="9">
         <v>9.9</v>
       </c>
       <c r="D27" s="9">
-        <v>10.98</v>
+        <v>10.94</v>
       </c>
       <c r="E27" s="9">
         <v>6.5</v>
@@ -2106,7 +2096,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2441,7 +2431,7 @@
         <v>9.04</v>
       </c>
       <c r="E10" s="9">
-        <v>4.07</v>
+        <v>4.17</v>
       </c>
       <c r="F10" s="9">
         <v>2.42</v>
